--- a/question_1.xlsx
+++ b/question_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\8th_semester\leadsquared\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4512E18D-8F78-4E7B-A19C-B923EB8ADF4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D613CD2-ED0A-4941-BC9E-37E67EB3DABA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3BEF1298-9D13-4860-828F-16FE1CB5E0FF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -33,19 +33,46 @@
     <t>Test Case Description</t>
   </si>
   <si>
-    <t>Step Name</t>
-  </si>
-  <si>
-    <t>Test Data</t>
-  </si>
-  <si>
-    <t>Step Description</t>
-  </si>
-  <si>
     <t xml:space="preserve">Expected Result </t>
   </si>
   <si>
-    <t>Actual</t>
+    <t xml:space="preserve">New customer without new card </t>
+  </si>
+  <si>
+    <t>No discount</t>
+  </si>
+  <si>
+    <t>New customer with new card</t>
+  </si>
+  <si>
+    <t>15% discount</t>
+  </si>
+  <si>
+    <t>Existing customer with no card</t>
+  </si>
+  <si>
+    <t>Existing customer with card</t>
+  </si>
+  <si>
+    <t>10% discount</t>
+  </si>
+  <si>
+    <t>20% discount</t>
+  </si>
+  <si>
+    <t>If the new customer has discount coupon and no card</t>
+  </si>
+  <si>
+    <t>If the new customer has discount coupon and card</t>
+  </si>
+  <si>
+    <t>30% discound</t>
+  </si>
+  <si>
+    <t>If the new customer has no discount coupon and has card</t>
+  </si>
+  <si>
+    <t>If the new customer has no discount coupon and has no card</t>
   </si>
 </sst>
 </file>
@@ -89,9 +116,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,21 +434,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E3D7A88-A7F4-4246-A8E5-41093C0C900B}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22.08984375" customWidth="1"/>
-    <col min="2" max="2" width="18.90625" customWidth="1"/>
-    <col min="3" max="3" width="10.81640625" customWidth="1"/>
-    <col min="5" max="6" width="14.1796875" customWidth="1"/>
+    <col min="2" max="2" width="52.453125" customWidth="1"/>
+    <col min="3" max="3" width="25.36328125" customWidth="1"/>
+    <col min="4" max="4" width="24.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -430,22 +458,94 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
